--- a/LeeHanJu/2학기 종합설계 계획.xlsx
+++ b/LeeHanJu/2학기 종합설계 계획.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70944B03-D5A0-411F-A0DC-91426ED50AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6389F8E1-AB84-44DE-BA69-09F1C79F213C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5160" yWindow="570" windowWidth="20760" windowHeight="14625" tabRatio="788" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,12 +117,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-로그인 화면 알림창 생성
-블랜더 모델링 공부</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>맵 모델링 진행하기(백화점 빌딩 완성)</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -155,6 +149,11 @@
     <t>9~10월은 로비서버 매칭 시스템, 동기화 관련 작업들 진행할 예정</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
+  <si>
+    <t>로그인 화면 알림창 생성
+블랜더 모델링 공부</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -167,7 +166,7 @@
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="d"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -384,14 +383,6 @@
       <color theme="7" tint="0.59999389629810485"/>
       <name val="Malgun Gothic"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1246,6 +1237,21 @@
     <xf numFmtId="178" fontId="33" fillId="49" borderId="0" xfId="17" applyFont="1" applyFill="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="178" fontId="14" fillId="55" borderId="0" xfId="17" applyFill="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="54" borderId="0" xfId="17" applyFont="1" applyFill="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="16" applyFill="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="56" borderId="0" xfId="17" applyFill="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="8" borderId="0" xfId="16" applyFill="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
@@ -1288,9 +1294,6 @@
     <xf numFmtId="178" fontId="14" fillId="55" borderId="0" xfId="17" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="34" fillId="49" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="33" fillId="49" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1300,7 +1303,7 @@
     <xf numFmtId="178" fontId="32" fillId="54" borderId="9" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="178" fontId="31" fillId="53" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1327,20 +1330,8 @@
     <xf numFmtId="178" fontId="14" fillId="51" borderId="9" xfId="17" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="55" borderId="0" xfId="17" applyFill="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="33" fillId="54" borderId="0" xfId="17" applyFont="1" applyFill="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="16" applyFill="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="56" borderId="0" xfId="17" applyFill="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="8" borderId="0" xfId="16" applyFill="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+    <xf numFmtId="178" fontId="31" fillId="49" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1951,10 +1942,10 @@
         <v>토요일</v>
       </c>
       <c r="I2" s="50"/>
-      <c r="J2" s="86" t="s">
+      <c r="J2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="86"/>
+      <c r="K2" s="91"/>
     </row>
     <row r="3" spans="1:11" s="64" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3"/>
@@ -2164,10 +2155,10 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -2176,10 +2167,10 @@
       <c r="B14" s="68"/>
       <c r="C14" s="68"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="85"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2474,19 +2465,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="85"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2765,19 +2756,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="85"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3056,19 +3047,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="85"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3204,13 +3195,13 @@
     <row r="4" spans="1:8" ht="57.95" customHeight="1">
       <c r="B4" s="69"/>
       <c r="C4" s="69"/>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
     </row>
     <row r="5" spans="1:8" s="64" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5"/>
@@ -3240,13 +3231,13 @@
     <row r="6" spans="1:8" ht="57.95" customHeight="1">
       <c r="B6" s="72"/>
       <c r="C6" s="72"/>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" s="64" customFormat="1" ht="19.5" customHeight="1">
       <c r="A7"/>
@@ -3276,13 +3267,13 @@
     <row r="8" spans="1:8" ht="57.95" customHeight="1">
       <c r="B8" s="74"/>
       <c r="C8" s="74"/>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
     </row>
     <row r="9" spans="1:8" s="64" customFormat="1" ht="19.5" customHeight="1">
       <c r="A9"/>
@@ -3312,13 +3303,13 @@
     <row r="10" spans="1:8" ht="57.95" customHeight="1">
       <c r="B10" s="76"/>
       <c r="C10" s="76"/>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
     </row>
     <row r="11" spans="1:8" s="64" customFormat="1" ht="19.5" customHeight="1">
       <c r="A11"/>
@@ -3348,13 +3339,13 @@
     <row r="12" spans="1:8" ht="57.95" customHeight="1">
       <c r="B12" s="78"/>
       <c r="C12" s="78"/>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
     </row>
     <row r="13" spans="1:8" s="64" customFormat="1" ht="19.5" customHeight="1">
       <c r="A13"/>
@@ -3368,21 +3359,21 @@
       <c r="D13" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
     </row>
     <row r="14" spans="1:8" ht="57.95" customHeight="1">
       <c r="B14" s="79"/>
       <c r="C14" s="79"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="85"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3661,19 +3652,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="85"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3953,19 +3944,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="85"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4245,19 +4236,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="85"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4537,19 +4528,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="85"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4600,7 +4591,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4747,14 +4738,14 @@
     </row>
     <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="61"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
     </row>
     <row r="9" spans="2:8" ht="19.5" customHeight="1">
       <c r="B9" s="60">
@@ -4783,13 +4774,13 @@
     <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="80"/>
       <c r="C10" s="79"/>
-      <c r="D10" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
+      <c r="D10" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
     </row>
     <row r="11" spans="2:8" ht="19.5" customHeight="1">
       <c r="B11" s="61">
@@ -4817,14 +4808,14 @@
     </row>
     <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="81"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
     </row>
     <row r="13" spans="2:8" ht="19.5" customHeight="1">
       <c r="B13" s="60">
@@ -4837,19 +4828,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1">
       <c r="B14" s="77"/>
-      <c r="C14" s="111"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="85"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -4986,13 +4977,13 @@
     <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="61"/>
       <c r="C4" s="78"/>
-      <c r="D4" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
+      <c r="D4" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" customHeight="1">
       <c r="B5" s="60">
@@ -5021,13 +5012,13 @@
     <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="77"/>
       <c r="C6" s="76"/>
-      <c r="D6" s="101" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
+      <c r="D6" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
     </row>
     <row r="7" spans="2:8" ht="19.5" customHeight="1">
       <c r="B7" s="61">
@@ -5056,13 +5047,13 @@
     <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="75"/>
       <c r="C8" s="74"/>
-      <c r="D8" s="103" t="s" ph="1">
-        <v>17</v>
-      </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
+      <c r="D8" s="107" t="s" ph="1">
+        <v>16</v>
+      </c>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
     </row>
     <row r="9" spans="2:8" ht="19.5" customHeight="1">
       <c r="B9" s="60">
@@ -5091,13 +5082,13 @@
     <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="73"/>
       <c r="C10" s="68"/>
-      <c r="D10" s="105" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
+      <c r="D10" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
     </row>
     <row r="11" spans="2:8" ht="19.5" customHeight="1">
       <c r="B11" s="61">
@@ -5125,14 +5116,14 @@
     </row>
     <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="67"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
     </row>
     <row r="13" spans="2:8" ht="19.5" customHeight="1">
       <c r="B13" s="60">
@@ -5145,21 +5136,21 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
+      <c r="E13" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1">
       <c r="B14" s="72"/>
-      <c r="C14" s="113"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="85"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5444,19 +5435,19 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
     </row>
     <row r="14" spans="2:8" ht="57.95" customHeight="1">
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="85"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5499,12 +5490,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5729,18 +5720,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA10363-92EC-4580-AE8C-D8F6C7EC38E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD90E721-6104-41D1-93BF-62E14EE01C6F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5765,11 +5758,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD90E721-6104-41D1-93BF-62E14EE01C6F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA10363-92EC-4580-AE8C-D8F6C7EC38E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/LeeHanJu/2학기 종합설계 계획.xlsx
+++ b/LeeHanJu/2학기 종합설계 계획.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6389F8E1-AB84-44DE-BA69-09F1C79F213C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A76E302-572A-44D4-AA20-0A9AE67BD815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="570" windowWidth="20760" windowHeight="14625" tabRatio="788" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="405" windowWidth="24075" windowHeight="14625" tabRatio="788" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1월" sheetId="14" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>메모</t>
   </si>
@@ -126,14 +126,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>맵에 필요한 소품들 제작 1</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵에 필요한 소품들 제작 2</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>AI(클라이언트와 협업)</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -152,6 +144,10 @@
   <si>
     <t>로그인 화면 알림창 생성
 블랜더 모델링 공부</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵에 필요한 소품들 제작</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1294,6 +1290,9 @@
     <xf numFmtId="178" fontId="14" fillId="55" borderId="0" xfId="17" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="31" fillId="49" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="33" fillId="49" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1329,9 +1328,6 @@
     </xf>
     <xf numFmtId="178" fontId="14" fillId="51" borderId="9" xfId="17" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="31" fillId="49" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -4590,8 +4586,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4740,7 +4736,7 @@
       <c r="B8" s="61"/>
       <c r="C8" s="82"/>
       <c r="D8" s="99" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
@@ -4774,13 +4770,13 @@
     <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="80"/>
       <c r="C10" s="79"/>
-      <c r="D10" s="113" t="s">
+      <c r="D10" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
     </row>
     <row r="11" spans="2:8" ht="19.5" customHeight="1">
       <c r="B11" s="61">
@@ -4809,13 +4805,13 @@
     <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="81"/>
       <c r="C12" s="83"/>
-      <c r="D12" s="102" t="s">
+      <c r="D12" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
     </row>
     <row r="13" spans="2:8" ht="19.5" customHeight="1">
       <c r="B13" s="60">
@@ -4894,8 +4890,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4977,13 +4973,13 @@
     <row r="4" spans="2:8" ht="57.95" customHeight="1">
       <c r="B4" s="61"/>
       <c r="C4" s="78"/>
-      <c r="D4" s="102" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
+      <c r="D4" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
     </row>
     <row r="5" spans="2:8" ht="19.5" customHeight="1">
       <c r="B5" s="60">
@@ -5012,13 +5008,13 @@
     <row r="6" spans="2:8" ht="57.95" customHeight="1">
       <c r="B6" s="77"/>
       <c r="C6" s="76"/>
-      <c r="D6" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
+      <c r="D6" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
     </row>
     <row r="7" spans="2:8" ht="19.5" customHeight="1">
       <c r="B7" s="61">
@@ -5047,13 +5043,13 @@
     <row r="8" spans="2:8" ht="57.95" customHeight="1">
       <c r="B8" s="75"/>
       <c r="C8" s="74"/>
-      <c r="D8" s="107" t="s" ph="1">
-        <v>16</v>
-      </c>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
+      <c r="D8" s="108" t="s" ph="1">
+        <v>14</v>
+      </c>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
     </row>
     <row r="9" spans="2:8" ht="19.5" customHeight="1">
       <c r="B9" s="60">
@@ -5082,13 +5078,13 @@
     <row r="10" spans="2:8" ht="57.95" customHeight="1">
       <c r="B10" s="73"/>
       <c r="C10" s="68"/>
-      <c r="D10" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
+      <c r="D10" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
     </row>
     <row r="11" spans="2:8" ht="19.5" customHeight="1">
       <c r="B11" s="61">
@@ -5117,13 +5113,13 @@
     <row r="12" spans="2:8" ht="57.95" customHeight="1">
       <c r="B12" s="67"/>
       <c r="C12" s="85"/>
-      <c r="D12" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
+      <c r="D12" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
     </row>
     <row r="13" spans="2:8" ht="19.5" customHeight="1">
       <c r="B13" s="60">
@@ -5136,8 +5132,8 @@
       <c r="D13" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="104" t="s">
-        <v>19</v>
+      <c r="E13" s="105" t="s">
+        <v>17</v>
       </c>
       <c r="F13" s="87"/>
       <c r="G13" s="87"/>
@@ -5490,12 +5486,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5720,20 +5716,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD90E721-6104-41D1-93BF-62E14EE01C6F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA10363-92EC-4580-AE8C-D8F6C7EC38E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5758,9 +5752,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA10363-92EC-4580-AE8C-D8F6C7EC38E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD90E721-6104-41D1-93BF-62E14EE01C6F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>